--- a/results/Homeopathy_excluded/mod3.antielite_salience.slopes.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.antielite_salience.slopes.eff.COMB.xlsx
@@ -422,25 +422,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.18158699023168</v>
+        <v>-0.181585679221759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0462569413023663</v>
+        <v>0.046256812884252</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.272248929219301</v>
+        <v>-0.272247366514501</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0909250512440586</v>
+        <v>-0.0909239919290164</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.92561602905618</v>
+        <v>-3.92559858536166</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000086508057544145</v>
+        <v>0.0000865143273525628</v>
       </c>
     </row>
     <row r="3">
@@ -451,25 +451,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0289128652333708</v>
+        <v>-0.028912856870958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0452936976382001</v>
+        <v>0.045293583114332</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.11768688133089</v>
+        <v>-0.11768664850582</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0598611508641483</v>
+        <v>0.0598609347639042</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.638341904967063</v>
+        <v>-0.638343334374208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.523251139304325</v>
+        <v>0.523250209026712</v>
       </c>
     </row>
     <row r="4">
@@ -480,25 +480,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.150803429225394</v>
+        <v>0.150801898555939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0914974132511479</v>
+        <v>0.091497158137495</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0285282054254342</v>
+        <v>-0.0285292360813172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.330135063876221</v>
+        <v>0.330133033193195</v>
       </c>
       <c r="H4" t="n">
-        <v>1.64817150416546</v>
+        <v>1.64815937047274</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0993174825585835</v>
+        <v>0.099319971780301</v>
       </c>
     </row>
     <row r="5">
@@ -509,25 +509,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435445239236254</v>
+        <v>0.0435440829830022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.059192532947208</v>
+        <v>0.0591923373058899</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0724707088066028</v>
+        <v>-0.0724707662972886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.159559756653854</v>
+        <v>0.159558932263293</v>
       </c>
       <c r="H5" t="n">
-        <v>0.735642179098189</v>
+        <v>0.735637161242311</v>
       </c>
       <c r="I5" t="n">
-        <v>0.461948486394688</v>
+        <v>0.461951540933171</v>
       </c>
     </row>
     <row r="6">
@@ -538,25 +538,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00859702250339654</v>
+        <v>0.00859801021425307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0443445971928335</v>
+        <v>0.0443444378192063</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0783167909034931</v>
+        <v>-0.0783154908260672</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0955108359102862</v>
+        <v>0.0955115112545734</v>
       </c>
       <c r="H6" t="n">
-        <v>0.193868544256072</v>
+        <v>0.193891514631608</v>
       </c>
       <c r="I6" t="n">
-        <v>0.846278814424677</v>
+        <v>0.846260827964186</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0101746488624402</v>
+        <v>0.0101764294585292</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0624344280835783</v>
+        <v>0.0624341719208095</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.112194581576729</v>
+        <v>-0.112192298910839</v>
       </c>
       <c r="G7" t="n">
-        <v>0.13254387930161</v>
+        <v>0.132545157827898</v>
       </c>
       <c r="H7" t="n">
-        <v>0.162965357011357</v>
+        <v>0.162994545221754</v>
       </c>
       <c r="I7" t="n">
-        <v>0.870545711083735</v>
+        <v>0.870522729520654</v>
       </c>
     </row>
   </sheetData>
